--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,15 +98,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.295754837241929</v>
+        <v>0.272519</v>
       </c>
       <c r="H2">
-        <v>0.295754837241929</v>
+        <v>0.545038</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.2156106809380877</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1803469898877063</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.7698411407019</v>
+        <v>6.834606</v>
       </c>
       <c r="N2">
-        <v>6.7698411407019</v>
+        <v>13.669212</v>
       </c>
       <c r="O2">
-        <v>0.6074051537697821</v>
+        <v>0.5800266923841273</v>
       </c>
       <c r="P2">
-        <v>0.6074051537697821</v>
+        <v>0.4933860619101292</v>
       </c>
       <c r="Q2">
-        <v>2.002213264722006</v>
+        <v>1.862559992514</v>
       </c>
       <c r="R2">
-        <v>2.002213264722006</v>
+        <v>7.450239970056001</v>
       </c>
       <c r="S2">
-        <v>0.6074051537697821</v>
+        <v>0.1250599501072084</v>
       </c>
       <c r="T2">
-        <v>0.6074051537697821</v>
+        <v>0.08898069111804129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.295754837241929</v>
+        <v>0.272519</v>
       </c>
       <c r="H3">
-        <v>0.295754837241929</v>
+        <v>0.545038</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.2156106809380877</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1803469898877063</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.829257075142636</v>
+        <v>0.856297</v>
       </c>
       <c r="N3">
-        <v>0.829257075142636</v>
+        <v>2.568891</v>
       </c>
       <c r="O3">
-        <v>0.07440278298605235</v>
+        <v>0.07267062894458745</v>
       </c>
       <c r="P3">
-        <v>0.07440278298605235</v>
+        <v>0.09272334162103665</v>
       </c>
       <c r="Q3">
-        <v>0.2452567912905284</v>
+        <v>0.233357202143</v>
       </c>
       <c r="R3">
-        <v>0.2452567912905284</v>
+        <v>1.400143212858</v>
       </c>
       <c r="S3">
-        <v>0.07440278298605235</v>
+        <v>0.0156685637909416</v>
       </c>
       <c r="T3">
-        <v>0.07440278298605235</v>
+        <v>0.01672237555368343</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.295754837241929</v>
+        <v>0.272519</v>
       </c>
       <c r="H4">
-        <v>0.295754837241929</v>
+        <v>0.545038</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.2156106809380877</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1803469898877063</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.73648285676271</v>
+        <v>0.2788403333333334</v>
       </c>
       <c r="N4">
-        <v>2.73648285676271</v>
+        <v>0.8365210000000001</v>
       </c>
       <c r="O4">
-        <v>0.2455233078376184</v>
+        <v>0.02366410532613305</v>
       </c>
       <c r="P4">
-        <v>0.2455233078376184</v>
+        <v>0.03019397181747735</v>
       </c>
       <c r="Q4">
-        <v>0.8093280419171843</v>
+        <v>0.07598928879966668</v>
       </c>
       <c r="R4">
-        <v>0.8093280419171843</v>
+        <v>0.455935732798</v>
       </c>
       <c r="S4">
-        <v>0.2455233078376184</v>
+        <v>0.005102233863158174</v>
       </c>
       <c r="T4">
-        <v>0.2455233078376184</v>
+        <v>0.005445391930036275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,2045 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.272519</v>
+      </c>
+      <c r="H5">
+        <v>0.545038</v>
+      </c>
+      <c r="I5">
+        <v>0.2156106809380877</v>
+      </c>
+      <c r="J5">
+        <v>0.1803469898877063</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N5">
+        <v>0.162391</v>
+      </c>
+      <c r="O5">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P5">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q5">
+        <v>0.01475154430966667</v>
+      </c>
+      <c r="R5">
+        <v>0.08850926585800001</v>
+      </c>
+      <c r="S5">
+        <v>0.000990479449137701</v>
+      </c>
+      <c r="T5">
+        <v>0.001057095567129242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.272519</v>
+      </c>
+      <c r="H6">
+        <v>0.545038</v>
+      </c>
+      <c r="I6">
+        <v>0.2156106809380877</v>
+      </c>
+      <c r="J6">
+        <v>0.1803469898877063</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>2.949111</v>
+      </c>
+      <c r="N6">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P6">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q6">
+        <v>0.8036887806090001</v>
+      </c>
+      <c r="R6">
+        <v>4.822132683654001</v>
+      </c>
+      <c r="S6">
+        <v>0.05396297526450237</v>
+      </c>
+      <c r="T6">
+        <v>0.05759233267370889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.272519</v>
+      </c>
+      <c r="H7">
+        <v>0.545038</v>
+      </c>
+      <c r="I7">
+        <v>0.2156106809380877</v>
+      </c>
+      <c r="J7">
+        <v>0.1803469898877063</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.620553</v>
+      </c>
+      <c r="O7">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P7">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q7">
+        <v>0.2208157415035</v>
+      </c>
+      <c r="R7">
+        <v>0.8832629660140001</v>
+      </c>
+      <c r="S7">
+        <v>0.01482647846313942</v>
+      </c>
+      <c r="T7">
+        <v>0.01054910304510715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.736576</v>
+      </c>
+      <c r="I8">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J8">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.834606</v>
+      </c>
+      <c r="N8">
+        <v>13.669212</v>
+      </c>
+      <c r="O8">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P8">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q8">
+        <v>1.678068916352</v>
+      </c>
+      <c r="R8">
+        <v>10.068413498112</v>
+      </c>
+      <c r="S8">
+        <v>0.1126724593027362</v>
+      </c>
+      <c r="T8">
+        <v>0.120250407386205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.736576</v>
+      </c>
+      <c r="I9">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J9">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.856297</v>
+      </c>
+      <c r="N9">
+        <v>2.568891</v>
+      </c>
+      <c r="O9">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P9">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q9">
+        <v>0.2102426063573333</v>
+      </c>
+      <c r="R9">
+        <v>1.892183457216</v>
+      </c>
+      <c r="S9">
+        <v>0.01411655461683602</v>
+      </c>
+      <c r="T9">
+        <v>0.02259897566010063</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.736576</v>
+      </c>
+      <c r="I10">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J10">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P10">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q10">
+        <v>0.06846236578844446</v>
+      </c>
+      <c r="R10">
+        <v>0.616161292096</v>
+      </c>
+      <c r="S10">
+        <v>0.004596845247474604</v>
+      </c>
+      <c r="T10">
+        <v>0.007359019015662027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.736576</v>
+      </c>
+      <c r="I11">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J11">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.162391</v>
+      </c>
+      <c r="O11">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P11">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q11">
+        <v>0.01329036813511111</v>
+      </c>
+      <c r="R11">
+        <v>0.119613313216</v>
+      </c>
+      <c r="S11">
+        <v>0.0008923700619382518</v>
+      </c>
+      <c r="T11">
+        <v>0.001428581538266669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.736576</v>
+      </c>
+      <c r="I12">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J12">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.949111</v>
+      </c>
+      <c r="N12">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P12">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q12">
+        <v>0.7240814613120001</v>
+      </c>
+      <c r="R12">
+        <v>6.516733151808</v>
+      </c>
+      <c r="S12">
+        <v>0.04861781193045391</v>
+      </c>
+      <c r="T12">
+        <v>0.07783150905344179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2455253333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.736576</v>
+      </c>
+      <c r="I13">
+        <v>0.1942539210387201</v>
+      </c>
+      <c r="J13">
+        <v>0.2437247759303519</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.620553</v>
+      </c>
+      <c r="O13">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P13">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q13">
+        <v>0.1989434077546667</v>
+      </c>
+      <c r="R13">
+        <v>1.193660446528</v>
+      </c>
+      <c r="S13">
+        <v>0.01335787987928105</v>
+      </c>
+      <c r="T13">
+        <v>0.01425628327667583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.295754837241929</v>
-      </c>
-      <c r="H5">
-        <v>0.295754837241929</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="N5">
-        <v>0.809930450773398</v>
-      </c>
-      <c r="O5">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="P5">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="Q5">
-        <v>0.2395408486457685</v>
-      </c>
-      <c r="R5">
-        <v>0.2395408486457685</v>
-      </c>
-      <c r="S5">
-        <v>0.07266875540654688</v>
-      </c>
-      <c r="T5">
-        <v>0.07266875540654688</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.396319</v>
+      </c>
+      <c r="I14">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J14">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>6.834606</v>
+      </c>
+      <c r="N14">
+        <v>13.669212</v>
+      </c>
+      <c r="O14">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P14">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q14">
+        <v>0.9028947384379999</v>
+      </c>
+      <c r="R14">
+        <v>5.417368430628</v>
+      </c>
+      <c r="S14">
+        <v>0.06062407191980342</v>
+      </c>
+      <c r="T14">
+        <v>0.0647014309519905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.396319</v>
+      </c>
+      <c r="I15">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J15">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.856297</v>
+      </c>
+      <c r="N15">
+        <v>2.568891</v>
+      </c>
+      <c r="O15">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P15">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q15">
+        <v>0.1131222569143333</v>
+      </c>
+      <c r="R15">
+        <v>1.018100312229</v>
+      </c>
+      <c r="S15">
+        <v>0.007595494299556098</v>
+      </c>
+      <c r="T15">
+        <v>0.0121595102672846</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.396319</v>
+      </c>
+      <c r="I16">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J16">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P16">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q16">
+        <v>0.03683657402211112</v>
+      </c>
+      <c r="R16">
+        <v>0.331529166199</v>
+      </c>
+      <c r="S16">
+        <v>0.002473359316124728</v>
+      </c>
+      <c r="T16">
+        <v>0.003959562974178032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.396319</v>
+      </c>
+      <c r="I17">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J17">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.162391</v>
+      </c>
+      <c r="O17">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P17">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q17">
+        <v>0.007150959858777777</v>
+      </c>
+      <c r="R17">
+        <v>0.064358638729</v>
+      </c>
+      <c r="S17">
+        <v>0.00048014490097058</v>
+      </c>
+      <c r="T17">
+        <v>0.0007686566038865071</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.396319</v>
+      </c>
+      <c r="I18">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J18">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.949111</v>
+      </c>
+      <c r="N18">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P18">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q18">
+        <v>0.389596240803</v>
+      </c>
+      <c r="R18">
+        <v>3.506366167227</v>
+      </c>
+      <c r="S18">
+        <v>0.02615909642245411</v>
+      </c>
+      <c r="T18">
+        <v>0.04187769603754533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1321063333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.396319</v>
+      </c>
+      <c r="I19">
+        <v>0.1045194518042191</v>
+      </c>
+      <c r="J19">
+        <v>0.131137532952392</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.620553</v>
+      </c>
+      <c r="O19">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P19">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q19">
+        <v>0.1070426574011667</v>
+      </c>
+      <c r="R19">
+        <v>0.6422559444070001</v>
+      </c>
+      <c r="S19">
+        <v>0.007187284945310175</v>
+      </c>
+      <c r="T19">
+        <v>0.007670676117507071</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.211063</v>
+      </c>
+      <c r="I20">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J20">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.834606</v>
+      </c>
+      <c r="N20">
+        <v>13.669212</v>
+      </c>
+      <c r="O20">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P20">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q20">
+        <v>0.480844148726</v>
+      </c>
+      <c r="R20">
+        <v>2.885064892356</v>
+      </c>
+      <c r="S20">
+        <v>0.03228585682646926</v>
+      </c>
+      <c r="T20">
+        <v>0.03445728849997091</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.211063</v>
+      </c>
+      <c r="I21">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J21">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.856297</v>
+      </c>
+      <c r="N21">
+        <v>2.568891</v>
+      </c>
+      <c r="O21">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P21">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q21">
+        <v>0.06024420457033334</v>
+      </c>
+      <c r="R21">
+        <v>0.542197841133</v>
+      </c>
+      <c r="S21">
+        <v>0.004045044051249647</v>
+      </c>
+      <c r="T21">
+        <v>0.006475648948306515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.211063</v>
+      </c>
+      <c r="I22">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J22">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P22">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q22">
+        <v>0.01961762575811112</v>
+      </c>
+      <c r="R22">
+        <v>0.176558631823</v>
+      </c>
+      <c r="S22">
+        <v>0.001317208201825382</v>
+      </c>
+      <c r="T22">
+        <v>0.002108698397046163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.211063</v>
+      </c>
+      <c r="I23">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J23">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N23">
+        <v>0.162391</v>
+      </c>
+      <c r="O23">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P23">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q23">
+        <v>0.003808303514777778</v>
+      </c>
+      <c r="R23">
+        <v>0.034274731633</v>
+      </c>
+      <c r="S23">
+        <v>0.0002557051850493001</v>
+      </c>
+      <c r="T23">
+        <v>0.0004093545068142024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.211063</v>
+      </c>
+      <c r="I24">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J24">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.949111</v>
+      </c>
+      <c r="N24">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P24">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q24">
+        <v>0.207482738331</v>
+      </c>
+      <c r="R24">
+        <v>1.867344644979</v>
+      </c>
+      <c r="S24">
+        <v>0.01393124570916971</v>
+      </c>
+      <c r="T24">
+        <v>0.02230231747348078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07035433333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.211063</v>
+      </c>
+      <c r="I25">
+        <v>0.05566270871735622</v>
+      </c>
+      <c r="J25">
+        <v>0.06983839058316842</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N25">
+        <v>1.620553</v>
+      </c>
+      <c r="O25">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P25">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q25">
+        <v>0.05700646297316667</v>
+      </c>
+      <c r="R25">
+        <v>0.3420387778390001</v>
+      </c>
+      <c r="S25">
+        <v>0.003827648743592918</v>
+      </c>
+      <c r="T25">
+        <v>0.004085082757549841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.13889</v>
+      </c>
+      <c r="I26">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J26">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.834606</v>
+      </c>
+      <c r="N26">
+        <v>13.669212</v>
+      </c>
+      <c r="O26">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P26">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q26">
+        <v>0.3164194757800001</v>
+      </c>
+      <c r="R26">
+        <v>1.89851685468</v>
+      </c>
+      <c r="S26">
+        <v>0.02124570699093785</v>
+      </c>
+      <c r="T26">
+        <v>0.02267461753012589</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.13889</v>
+      </c>
+      <c r="I27">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J27">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.856297</v>
+      </c>
+      <c r="N27">
+        <v>2.568891</v>
+      </c>
+      <c r="O27">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P27">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q27">
+        <v>0.03964369677666667</v>
+      </c>
+      <c r="R27">
+        <v>0.35679327099</v>
+      </c>
+      <c r="S27">
+        <v>0.002661841100894347</v>
+      </c>
+      <c r="T27">
+        <v>0.004261300571063104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.13889</v>
+      </c>
+      <c r="I28">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J28">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N28">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O28">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P28">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q28">
+        <v>0.01290937796555556</v>
+      </c>
+      <c r="R28">
+        <v>0.11618440169</v>
+      </c>
+      <c r="S28">
+        <v>0.0008667888125892615</v>
+      </c>
+      <c r="T28">
+        <v>0.001387628908741663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.13889</v>
+      </c>
+      <c r="I29">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J29">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N29">
+        <v>0.162391</v>
+      </c>
+      <c r="O29">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P29">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q29">
+        <v>0.002506053998888889</v>
+      </c>
+      <c r="R29">
+        <v>0.02255448599</v>
+      </c>
+      <c r="S29">
+        <v>0.000168266788359387</v>
+      </c>
+      <c r="T29">
+        <v>0.0002693757193417348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.13889</v>
+      </c>
+      <c r="I30">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J30">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.949111</v>
+      </c>
+      <c r="N30">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O30">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P30">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q30">
+        <v>0.13653400893</v>
+      </c>
+      <c r="R30">
+        <v>1.22880608037</v>
+      </c>
+      <c r="S30">
+        <v>0.009167455766982285</v>
+      </c>
+      <c r="T30">
+        <v>0.01467603925790757</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.13889</v>
+      </c>
+      <c r="I31">
+        <v>0.03662884358581849</v>
+      </c>
+      <c r="J31">
+        <v>0.0459571505573988</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.620553</v>
+      </c>
+      <c r="O31">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P31">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q31">
+        <v>0.03751310102833334</v>
+      </c>
+      <c r="R31">
+        <v>0.22507860617</v>
+      </c>
+      <c r="S31">
+        <v>0.002518784126055351</v>
+      </c>
+      <c r="T31">
+        <v>0.002688188570218832</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.4971385</v>
+      </c>
+      <c r="H32">
+        <v>0.994277</v>
+      </c>
+      <c r="I32">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J32">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.834606</v>
+      </c>
+      <c r="N32">
+        <v>13.669212</v>
+      </c>
+      <c r="O32">
+        <v>0.5800266923841273</v>
+      </c>
+      <c r="P32">
+        <v>0.4933860619101292</v>
+      </c>
+      <c r="Q32">
+        <v>3.397745774931</v>
+      </c>
+      <c r="R32">
+        <v>13.590983099724</v>
+      </c>
+      <c r="S32">
+        <v>0.2281386472369722</v>
+      </c>
+      <c r="T32">
+        <v>0.1623216264237956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.4971385</v>
+      </c>
+      <c r="H33">
+        <v>0.994277</v>
+      </c>
+      <c r="I33">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J33">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.856297</v>
+      </c>
+      <c r="N33">
+        <v>2.568891</v>
+      </c>
+      <c r="O33">
+        <v>0.07267062894458745</v>
+      </c>
+      <c r="P33">
+        <v>0.09272334162103665</v>
+      </c>
+      <c r="Q33">
+        <v>0.4256982061345</v>
+      </c>
+      <c r="R33">
+        <v>2.554189236807</v>
+      </c>
+      <c r="S33">
+        <v>0.02858313108510975</v>
+      </c>
+      <c r="T33">
+        <v>0.03050553062059838</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.4971385</v>
+      </c>
+      <c r="H34">
+        <v>0.994277</v>
+      </c>
+      <c r="I34">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J34">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.2788403333333334</v>
+      </c>
+      <c r="N34">
+        <v>0.8365210000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.02366410532613305</v>
+      </c>
+      <c r="P34">
+        <v>0.03019397181747735</v>
+      </c>
+      <c r="Q34">
+        <v>0.1386222650528333</v>
+      </c>
+      <c r="R34">
+        <v>0.831733590317</v>
+      </c>
+      <c r="S34">
+        <v>0.009307669884960901</v>
+      </c>
+      <c r="T34">
+        <v>0.009933670591813189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.4971385</v>
+      </c>
+      <c r="H35">
+        <v>0.994277</v>
+      </c>
+      <c r="I35">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J35">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.05413033333333334</v>
+      </c>
+      <c r="N35">
+        <v>0.162391</v>
+      </c>
+      <c r="O35">
+        <v>0.004593832943842499</v>
+      </c>
+      <c r="P35">
+        <v>0.005861453899438226</v>
+      </c>
+      <c r="Q35">
+        <v>0.02691027271783333</v>
+      </c>
+      <c r="R35">
+        <v>0.161461636307</v>
+      </c>
+      <c r="S35">
+        <v>0.001806866558387279</v>
+      </c>
+      <c r="T35">
+        <v>0.001928389963999871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.4971385</v>
+      </c>
+      <c r="H36">
+        <v>0.994277</v>
+      </c>
+      <c r="I36">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J36">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.949111</v>
+      </c>
+      <c r="N36">
+        <v>8.847333000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.2502796940750712</v>
+      </c>
+      <c r="P36">
+        <v>0.319341801654516</v>
+      </c>
+      <c r="Q36">
+        <v>1.4661166188735</v>
+      </c>
+      <c r="R36">
+        <v>8.796699713241001</v>
+      </c>
+      <c r="S36">
+        <v>0.09844110898150886</v>
+      </c>
+      <c r="T36">
+        <v>0.1050619071584316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.4971385</v>
+      </c>
+      <c r="H37">
+        <v>0.994277</v>
+      </c>
+      <c r="I37">
+        <v>0.3933243939157985</v>
+      </c>
+      <c r="J37">
+        <v>0.3289951600889826</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.8102765000000001</v>
+      </c>
+      <c r="N37">
+        <v>1.620553</v>
+      </c>
+      <c r="O37">
+        <v>0.06876504632623846</v>
+      </c>
+      <c r="P37">
+        <v>0.05849336909740267</v>
+      </c>
+      <c r="Q37">
+        <v>0.40281964379525</v>
+      </c>
+      <c r="R37">
+        <v>1.611278575181</v>
+      </c>
+      <c r="S37">
+        <v>0.02704697016885955</v>
+      </c>
+      <c r="T37">
+        <v>0.01924403533034394</v>
       </c>
     </row>
   </sheetData>
